--- a/library_report.xlsx
+++ b/library_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,6 +778,76 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>geography</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>weking</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Issued</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>karan</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>englishcore1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kl sharma</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Issued</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>lalith2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
